--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>63.893683850172</v>
+        <v>238.9935213156195</v>
       </c>
       <c r="R2">
-        <v>255.574735400688</v>
+        <v>955.9740852624781</v>
       </c>
       <c r="S2">
-        <v>0.0001413627981473909</v>
+        <v>0.000202958674077303</v>
       </c>
       <c r="T2">
-        <v>6.628125919729255E-05</v>
+        <v>9.411982991261356E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>4420.709806318299</v>
+        <v>3080.928879628724</v>
       </c>
       <c r="R3">
-        <v>26524.2588379098</v>
+        <v>18485.57327777235</v>
       </c>
       <c r="S3">
-        <v>0.009780683635086463</v>
+        <v>0.002616394105136145</v>
       </c>
       <c r="T3">
-        <v>0.006878853937950098</v>
+        <v>0.001819985540992339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>5897.289167321135</v>
+        <v>3310.87269852612</v>
       </c>
       <c r="R4">
-        <v>35383.73500392681</v>
+        <v>19865.23619115672</v>
       </c>
       <c r="S4">
-        <v>0.01304756977437244</v>
+        <v>0.002811667568361346</v>
       </c>
       <c r="T4">
-        <v>0.009176488072996251</v>
+        <v>0.001955819389154473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>948.203846124909</v>
+        <v>716.0993458941645</v>
       </c>
       <c r="R5">
-        <v>3792.815384499636</v>
+        <v>2864.397383576658</v>
       </c>
       <c r="S5">
-        <v>0.002097871664696235</v>
+        <v>0.000608127672039974</v>
       </c>
       <c r="T5">
-        <v>0.0009836362705936796</v>
+        <v>0.0002820124506516808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>197.901836014124</v>
+        <v>1148.83522251733</v>
       </c>
       <c r="R6">
-        <v>1187.411016084744</v>
+        <v>6893.011335103982</v>
       </c>
       <c r="S6">
-        <v>0.0004378516875481012</v>
+        <v>0.000975616712168097</v>
       </c>
       <c r="T6">
-        <v>0.0003079455299344959</v>
+        <v>0.0006786471144430386</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>4544.455750609412</v>
+        <v>4444.787166205079</v>
       </c>
       <c r="R7">
-        <v>27266.73450365647</v>
+        <v>26668.72299723048</v>
       </c>
       <c r="S7">
-        <v>0.01005446770716162</v>
+        <v>0.003774613239902242</v>
       </c>
       <c r="T7">
-        <v>0.007071409050926674</v>
+        <v>0.002625652422154061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>168.0400372254087</v>
+        <v>901.8852879573611</v>
       </c>
       <c r="R8">
-        <v>1008.240223352452</v>
+        <v>5411.311727744167</v>
       </c>
       <c r="S8">
-        <v>0.0003717833818860573</v>
+        <v>0.0007659012729969331</v>
       </c>
       <c r="T8">
-        <v>0.0002614790208914371</v>
+        <v>0.0005327673074731647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>11626.44248465033</v>
@@ -1013,10 +1013,10 @@
         <v>104637.9823618529</v>
       </c>
       <c r="S9">
-        <v>0.02572314418407807</v>
+        <v>0.009873436476147843</v>
       </c>
       <c r="T9">
-        <v>0.02713702205319404</v>
+        <v>0.01030206702684058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>15509.83808555241</v>
+        <v>12494.17708339043</v>
       </c>
       <c r="R10">
-        <v>139588.5427699717</v>
+        <v>112447.5937505138</v>
       </c>
       <c r="S10">
-        <v>0.03431503676839193</v>
+        <v>0.01061033621569648</v>
       </c>
       <c r="T10">
-        <v>0.03620116976665741</v>
+        <v>0.01107095742556154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>2493.770901889803</v>
+        <v>2702.330428132938</v>
       </c>
       <c r="R11">
-        <v>14962.62541133882</v>
+        <v>16213.98256879763</v>
       </c>
       <c r="S11">
-        <v>0.00551739094362355</v>
+        <v>0.002294879784160772</v>
       </c>
       <c r="T11">
-        <v>0.003880436975141929</v>
+        <v>0.001596337500260072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>520.4807406123696</v>
+        <v>4335.337542925628</v>
       </c>
       <c r="R12">
-        <v>4684.326665511326</v>
+        <v>39018.03788633065</v>
       </c>
       <c r="S12">
-        <v>0.001151547530853363</v>
+        <v>0.003681666157919538</v>
       </c>
       <c r="T12">
-        <v>0.001214842575870313</v>
+        <v>0.003841496486149041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>11951.89363775544</v>
+        <v>16773.20845868495</v>
       </c>
       <c r="R13">
-        <v>107567.0427397989</v>
+        <v>150958.8761281646</v>
       </c>
       <c r="S13">
-        <v>0.0264431947883149</v>
+        <v>0.01424418590954672</v>
       </c>
       <c r="T13">
-        <v>0.02789665038582553</v>
+        <v>0.01486256161544489</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>1059.144869427894</v>
+        <v>10095.78665209439</v>
       </c>
       <c r="R14">
-        <v>6354.869216567364</v>
+        <v>60574.71991256635</v>
       </c>
       <c r="S14">
-        <v>0.002343325245369728</v>
+        <v>0.008573569113492521</v>
       </c>
       <c r="T14">
-        <v>0.001648084397105329</v>
+        <v>0.005963846115775798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>73280.67233642534</v>
+        <v>130147.4637797011</v>
       </c>
       <c r="R15">
-        <v>659526.0510278281</v>
+        <v>1171327.17401731</v>
       </c>
       <c r="S15">
-        <v>0.162131219666266</v>
+        <v>0.1105241537002518</v>
       </c>
       <c r="T15">
-        <v>0.1710427952395508</v>
+        <v>0.1153222834071511</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>97757.44938651026</v>
+        <v>139860.9644837229</v>
       </c>
       <c r="R16">
-        <v>879817.0444785922</v>
+        <v>1258748.680353506</v>
       </c>
       <c r="S16">
-        <v>0.2162853313863485</v>
+        <v>0.1187730769877317</v>
       </c>
       <c r="T16">
-        <v>0.2281734987609595</v>
+        <v>0.1239293130682199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>15718.06755030748</v>
+        <v>30250.13472354465</v>
       </c>
       <c r="R17">
-        <v>94308.40530184488</v>
+        <v>181500.8083412679</v>
       </c>
       <c r="S17">
-        <v>0.03477573801491163</v>
+        <v>0.02568909483551408</v>
       </c>
       <c r="T17">
-        <v>0.02445812903413485</v>
+        <v>0.0178695484254593</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>3280.554534251598</v>
+        <v>48530.16617814207</v>
       </c>
       <c r="R18">
-        <v>29524.99080826438</v>
+        <v>436771.4956032786</v>
       </c>
       <c r="S18">
-        <v>0.007258125380974857</v>
+        <v>0.04121290872675704</v>
       </c>
       <c r="T18">
-        <v>0.007657069723625677</v>
+        <v>0.04300206408374693</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>75331.96871050488</v>
+        <v>187760.8342558906</v>
       </c>
       <c r="R19">
-        <v>677987.718394544</v>
+        <v>1689847.508303015</v>
       </c>
       <c r="S19">
-        <v>0.1666696494107376</v>
+        <v>0.1594507238290282</v>
       </c>
       <c r="T19">
-        <v>0.1758306807010346</v>
+        <v>0.1663728782104636</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>107.402823875025</v>
+        <v>898.3902839171672</v>
       </c>
       <c r="R20">
-        <v>429.6112955001</v>
+        <v>3593.561135668669</v>
       </c>
       <c r="S20">
-        <v>0.0002376254239387399</v>
+        <v>0.000762933236951488</v>
       </c>
       <c r="T20">
-        <v>0.0001114162461578357</v>
+        <v>0.0003538018112455928</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>7431.043072175623</v>
+        <v>11581.38746046985</v>
       </c>
       <c r="R21">
-        <v>44586.25843305374</v>
+        <v>69488.3247628191</v>
       </c>
       <c r="S21">
-        <v>0.01644095282250192</v>
+        <v>0.009835174736173248</v>
       </c>
       <c r="T21">
-        <v>0.01156308876620967</v>
+        <v>0.006841429499412906</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>9913.116158134613</v>
+        <v>12445.75939660872</v>
       </c>
       <c r="R22">
-        <v>59478.69694880768</v>
+        <v>74674.55637965232</v>
       </c>
       <c r="S22">
-        <v>0.02193246271040061</v>
+        <v>0.01056921882700322</v>
       </c>
       <c r="T22">
-        <v>0.01542532333252891</v>
+        <v>0.007352036685516429</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>1593.894177737269</v>
+        <v>2691.858302807937</v>
       </c>
       <c r="R23">
-        <v>6375.576710949074</v>
+        <v>10767.43321123175</v>
       </c>
       <c r="S23">
-        <v>0.003526441540671451</v>
+        <v>0.002285986619781112</v>
       </c>
       <c r="T23">
-        <v>0.001653454719802871</v>
+        <v>0.001060100894009387</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>332.665370927925</v>
+        <v>4318.537155525532</v>
       </c>
       <c r="R24">
-        <v>1995.99222556755</v>
+        <v>25911.2229331532</v>
       </c>
       <c r="S24">
-        <v>0.0007360118379053926</v>
+        <v>0.003667398891041599</v>
       </c>
       <c r="T24">
-        <v>0.0005176445858437831</v>
+        <v>0.002551073227708458</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>7639.055242691775</v>
+        <v>16708.20858329848</v>
       </c>
       <c r="R25">
-        <v>45834.33145615065</v>
+        <v>100249.2514997909</v>
       </c>
       <c r="S25">
-        <v>0.0169011733122428</v>
+        <v>0.01418898655330055</v>
       </c>
       <c r="T25">
-        <v>0.01188676650145742</v>
+        <v>0.009869977278135614</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>31.89441403061933</v>
+        <v>3790.624265534189</v>
       </c>
       <c r="R26">
-        <v>191.366484183716</v>
+        <v>22743.74559320513</v>
       </c>
       <c r="S26">
-        <v>7.056540397971773E-05</v>
+        <v>0.003219083390306903</v>
       </c>
       <c r="T26">
-        <v>4.962936387264404E-05</v>
+        <v>0.002239221229747535</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>2206.727494419705</v>
+        <v>48865.94292270651</v>
       </c>
       <c r="R27">
-        <v>19860.54744977735</v>
+        <v>439793.4863043586</v>
       </c>
       <c r="S27">
-        <v>0.004882316287967653</v>
+        <v>0.04149805789100067</v>
       </c>
       <c r="T27">
-        <v>0.005150673799016192</v>
+        <v>0.043299592285785</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>2943.80556929369</v>
+        <v>52513.03182630475</v>
       </c>
       <c r="R28">
-        <v>26494.25012364321</v>
+        <v>472617.2864367428</v>
       </c>
       <c r="S28">
-        <v>0.006513078717656515</v>
+        <v>0.04459524782335374</v>
       </c>
       <c r="T28">
-        <v>0.006871071418424594</v>
+        <v>0.04653123897283656</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>473.3238754029378</v>
+        <v>11357.89598871514</v>
       </c>
       <c r="R29">
-        <v>2839.943252417627</v>
+        <v>68147.37593229082</v>
       </c>
       <c r="S29">
-        <v>0.001047214425980326</v>
+        <v>0.009645380751276819</v>
       </c>
       <c r="T29">
-        <v>0.0007365165203985498</v>
+        <v>0.006709407222034763</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>98.78852986557311</v>
+        <v>18221.42561690417</v>
       </c>
       <c r="R30">
-        <v>889.0967687901581</v>
+        <v>163992.8305521375</v>
       </c>
       <c r="S30">
-        <v>0.0002185665650365677</v>
+        <v>0.0154740444956295</v>
       </c>
       <c r="T30">
-        <v>0.0002305801208842692</v>
+        <v>0.0161458114361095</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>2268.498926962017</v>
+        <v>70497.80259566718</v>
       </c>
       <c r="R31">
-        <v>20416.49034265815</v>
+        <v>634480.2233610045</v>
       </c>
       <c r="S31">
-        <v>0.005018983670775484</v>
+        <v>0.05986831969927942</v>
       </c>
       <c r="T31">
-        <v>0.005294853132408262</v>
+        <v>0.06246735306559957</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>366.4191702365632</v>
+        <v>5822.004155783135</v>
       </c>
       <c r="R32">
-        <v>2198.51502141938</v>
+        <v>34932.02493469881</v>
       </c>
       <c r="S32">
-        <v>0.0008106910742687805</v>
+        <v>0.004944176885739987</v>
       </c>
       <c r="T32">
-        <v>0.0005701672497298292</v>
+        <v>0.003439210639746903</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>25352.0022868963</v>
+        <v>75052.99993961978</v>
       </c>
       <c r="R33">
-        <v>228168.0205820667</v>
+        <v>675476.9994565781</v>
       </c>
       <c r="S33">
-        <v>0.05609052047020243</v>
+        <v>0.06373669574562478</v>
       </c>
       <c r="T33">
-        <v>0.05917354737362053</v>
+        <v>0.06650366498301043</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>33819.92824833915</v>
+        <v>80654.54872574493</v>
       </c>
       <c r="R34">
-        <v>304379.3542350524</v>
+        <v>725890.9385317044</v>
       </c>
       <c r="S34">
-        <v>0.07482554459592868</v>
+        <v>0.06849365697266113</v>
       </c>
       <c r="T34">
-        <v>0.07893834592346692</v>
+        <v>0.07146713778433951</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>5437.784231175954</v>
+        <v>17444.54554583332</v>
       </c>
       <c r="R35">
-        <v>32626.70538705573</v>
+        <v>104667.2732749999</v>
       </c>
       <c r="S35">
-        <v>0.01203092932383367</v>
+        <v>0.01481430046460452</v>
       </c>
       <c r="T35">
-        <v>0.008461474539424764</v>
+        <v>0.01030495084535185</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>1134.932628249021</v>
+        <v>27986.21235833814</v>
       </c>
       <c r="R36">
-        <v>10214.39365424119</v>
+        <v>251875.9112250432</v>
       </c>
       <c r="S36">
-        <v>0.0025110033162945</v>
+        <v>0.02376652103967689</v>
       </c>
       <c r="T36">
-        <v>0.002649021125967359</v>
+        <v>0.02479828510945108</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>26061.66376663843</v>
+        <v>108277.2838810266</v>
       </c>
       <c r="R37">
-        <v>234554.9738997459</v>
+        <v>974495.5549292394</v>
       </c>
       <c r="S37">
-        <v>0.05766062453164631</v>
+        <v>0.09195150499566557</v>
       </c>
       <c r="T37">
-        <v>0.0608299525251955</v>
+        <v>0.0959433496101047</v>
       </c>
     </row>
   </sheetData>
